--- a/lowe/edd/data/SLO$HWS.xlsx
+++ b/lowe/edd/data/SLO$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1400,14 +1400,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH56"/>
+  <dimension ref="A1:JI56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1417,12 +1417,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1450,12 +1450,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2270,11 +2270,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3075,10 +3078,13 @@
         <v>130700</v>
       </c>
       <c r="JH9" s="11">
-        <v>129000</v>
+        <v>129500</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>131000</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3879,10 +3885,13 @@
         <v>123300</v>
       </c>
       <c r="JH10" s="11">
-        <v>121800</v>
+        <v>122400</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>125000</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4685,8 +4694,11 @@
       <c r="JH11" s="11">
         <v>7100</v>
       </c>
+      <c r="JI11" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5489,8 +5501,11 @@
       <c r="JH12" s="12">
         <v>5.5E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6291,10 +6306,13 @@
         <v>111800</v>
       </c>
       <c r="JH13" s="11">
-        <v>111100</v>
+        <v>111700</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>113500</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7095,10 +7113,13 @@
         <v>5100</v>
       </c>
       <c r="JH14" s="11">
-        <v>4900</v>
+        <v>4800</v>
+      </c>
+      <c r="JI14" s="11">
+        <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7899,10 +7920,13 @@
         <v>106700</v>
       </c>
       <c r="JH15" s="11">
-        <v>106200</v>
+        <v>106900</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>108500</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8703,10 +8727,13 @@
         <v>86200</v>
       </c>
       <c r="JH16" s="11">
-        <v>86600</v>
+        <v>87000</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>87200</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9509,8 +9536,11 @@
       <c r="JH17" s="11">
         <v>16600</v>
       </c>
+      <c r="JI17" s="11">
+        <v>16500</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10313,8 +10343,11 @@
       <c r="JH18" s="11">
         <v>8500</v>
       </c>
+      <c r="JI18" s="11">
+        <v>8400</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11117,8 +11150,11 @@
       <c r="JH19" s="11">
         <v>8100</v>
       </c>
+      <c r="JI19" s="11">
+        <v>8100</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11921,8 +11957,11 @@
       <c r="JH20" s="11">
         <v>2800</v>
       </c>
+      <c r="JI20" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -12725,8 +12764,11 @@
       <c r="JH21" s="11">
         <v>5300</v>
       </c>
+      <c r="JI21" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>24</v>
       </c>
@@ -13527,10 +13569,13 @@
         <v>90200</v>
       </c>
       <c r="JH22" s="11">
-        <v>89600</v>
+        <v>90300</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>92000</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -14331,10 +14376,13 @@
         <v>69700</v>
       </c>
       <c r="JH23" s="11">
-        <v>70000</v>
+        <v>70400</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>70700</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>26</v>
       </c>
@@ -15135,10 +15183,13 @@
         <v>19400</v>
       </c>
       <c r="JH24" s="11">
-        <v>19200</v>
+        <v>19300</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>19000</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>27</v>
       </c>
@@ -15941,8 +15992,11 @@
       <c r="JH25" s="11">
         <v>2600</v>
       </c>
+      <c r="JI25" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -16743,10 +16797,13 @@
         <v>13300</v>
       </c>
       <c r="JH26" s="11">
-        <v>13100</v>
+        <v>13200</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>12900</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>32</v>
       </c>
@@ -17549,8 +17606,11 @@
       <c r="JH27" s="11">
         <v>3500</v>
       </c>
+      <c r="JI27" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>35</v>
       </c>
@@ -18353,8 +18413,11 @@
       <c r="JH28" s="11">
         <v>1200</v>
       </c>
+      <c r="JI28" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>36</v>
       </c>
@@ -19157,8 +19220,11 @@
       <c r="JH29" s="11">
         <v>3600</v>
       </c>
+      <c r="JI29" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>37</v>
       </c>
@@ -19961,8 +20027,11 @@
       <c r="JH30" s="11">
         <v>2200</v>
       </c>
+      <c r="JI30" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>38</v>
       </c>
@@ -20765,8 +20834,11 @@
       <c r="JH31" s="11">
         <v>1400</v>
       </c>
+      <c r="JI31" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>39</v>
       </c>
@@ -21567,10 +21639,13 @@
         <v>11300</v>
       </c>
       <c r="JH32" s="11">
-        <v>11300</v>
+        <v>11400</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>11400</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>40</v>
       </c>
@@ -22373,8 +22448,11 @@
       <c r="JH33" s="11">
         <v>16200</v>
       </c>
+      <c r="JI33" s="11">
+        <v>16400</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>41</v>
       </c>
@@ -23175,10 +23253,13 @@
         <v>14600</v>
       </c>
       <c r="JH34" s="11">
-        <v>15100</v>
+        <v>15300</v>
+      </c>
+      <c r="JI34" s="11">
+        <v>15700</v>
       </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>43</v>
       </c>
@@ -23979,10 +24060,13 @@
         <v>13400</v>
       </c>
       <c r="JH35" s="11">
-        <v>13800</v>
+        <v>13900</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>14300</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>44</v>
       </c>
@@ -24783,10 +24867,13 @@
         <v>3400</v>
       </c>
       <c r="JH36" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JI36" s="11">
         <v>3700</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>45</v>
       </c>
@@ -25587,10 +25674,13 @@
         <v>10000</v>
       </c>
       <c r="JH37" s="11">
-        <v>10100</v>
+        <v>10300</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>46</v>
       </c>
@@ -26393,8 +26483,11 @@
       <c r="JH38" s="11">
         <v>3400</v>
       </c>
+      <c r="JI38" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>47</v>
       </c>
@@ -27195,10 +27288,13 @@
         <v>20500</v>
       </c>
       <c r="JH39" s="11">
-        <v>19600</v>
+        <v>19900</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>21300</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>48</v>
       </c>
@@ -28001,8 +28097,11 @@
       <c r="JH40" s="11">
         <v>600</v>
       </c>
+      <c r="JI40" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>49</v>
       </c>
@@ -28803,10 +28902,13 @@
         <v>19900</v>
       </c>
       <c r="JH41" s="11">
-        <v>19000</v>
+        <v>19300</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>20700</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>50</v>
       </c>
@@ -29609,8 +29711,11 @@
       <c r="JH42" s="11">
         <v>8500</v>
       </c>
+      <c r="JI42" s="11">
+        <v>8600</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>51</v>
       </c>
@@ -30413,8 +30518,11 @@
       <c r="JH43" s="11">
         <v>2900</v>
       </c>
+      <c r="JI43" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>52</v>
       </c>
@@ -31217,8 +31325,11 @@
       <c r="JH44" s="11">
         <v>5600</v>
       </c>
+      <c r="JI44" s="11">
+        <v>5600</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>53</v>
       </c>
@@ -32019,10 +32130,13 @@
         <v>10400</v>
       </c>
       <c r="JH45" s="11">
-        <v>10500</v>
+        <v>10800</v>
+      </c>
+      <c r="JI45" s="11">
+        <v>12100</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>55</v>
       </c>
@@ -32825,8 +32939,11 @@
       <c r="JH46" s="11">
         <v>5100</v>
       </c>
+      <c r="JI46" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>58</v>
       </c>
@@ -33627,6 +33744,9 @@
         <v>500</v>
       </c>
       <c r="JH47" s="11">
+        <v>500</v>
+      </c>
+      <c r="JI47" s="11">
         <v>500</v>
       </c>
     </row>

--- a/lowe/edd/data/SLO$HWS.xlsx
+++ b/lowe/edd/data/SLO$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1400,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI56"/>
+  <dimension ref="A1:JJ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,12 +1417,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1450,12 +1450,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2273,11 +2273,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3081,10 +3084,13 @@
         <v>129500</v>
       </c>
       <c r="JI9" s="11">
-        <v>131000</v>
+        <v>130700</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>132600</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3888,10 +3894,13 @@
         <v>122400</v>
       </c>
       <c r="JI10" s="11">
-        <v>125000</v>
+        <v>124800</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>127000</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4695,10 +4704,13 @@
         <v>7100</v>
       </c>
       <c r="JI11" s="11">
-        <v>6000</v>
+        <v>5900</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>5700</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5502,10 +5514,13 @@
         <v>5.5E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>4.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6309,10 +6324,13 @@
         <v>111700</v>
       </c>
       <c r="JI13" s="11">
-        <v>113500</v>
+        <v>113200</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>116100</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7118,8 +7136,11 @@
       <c r="JI14" s="11">
         <v>5000</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7923,10 +7944,13 @@
         <v>106900</v>
       </c>
       <c r="JI15" s="11">
-        <v>108500</v>
+        <v>108200</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>111000</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8730,10 +8754,13 @@
         <v>87000</v>
       </c>
       <c r="JI16" s="11">
-        <v>87200</v>
+        <v>87000</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>89300</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9539,8 +9566,11 @@
       <c r="JI17" s="11">
         <v>16500</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>17000</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10346,8 +10376,11 @@
       <c r="JI18" s="11">
         <v>8400</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11153,8 +11186,11 @@
       <c r="JI19" s="11">
         <v>8100</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>8300</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11960,8 +11996,11 @@
       <c r="JI20" s="11">
         <v>2800</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -12767,8 +12806,11 @@
       <c r="JI21" s="11">
         <v>5300</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>24</v>
       </c>
@@ -13572,10 +13614,13 @@
         <v>90300</v>
       </c>
       <c r="JI22" s="11">
-        <v>92000</v>
+        <v>91700</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>94000</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -14379,10 +14424,13 @@
         <v>70400</v>
       </c>
       <c r="JI23" s="11">
-        <v>70700</v>
+        <v>70500</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>72300</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>26</v>
       </c>
@@ -15188,8 +15236,11 @@
       <c r="JI24" s="11">
         <v>19000</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>19400</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>27</v>
       </c>
@@ -15995,8 +16046,11 @@
       <c r="JI25" s="11">
         <v>2600</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -16802,8 +16856,11 @@
       <c r="JI26" s="11">
         <v>12900</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>13200</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>32</v>
       </c>
@@ -17609,8 +17666,11 @@
       <c r="JI27" s="11">
         <v>3500</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>35</v>
       </c>
@@ -18416,8 +18476,11 @@
       <c r="JI28" s="11">
         <v>1200</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>36</v>
       </c>
@@ -19223,8 +19286,11 @@
       <c r="JI29" s="11">
         <v>3600</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>3700</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>37</v>
       </c>
@@ -20030,8 +20096,11 @@
       <c r="JI30" s="11">
         <v>2100</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>38</v>
       </c>
@@ -20837,8 +20906,11 @@
       <c r="JI31" s="11">
         <v>1500</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>39</v>
       </c>
@@ -21644,8 +21716,11 @@
       <c r="JI32" s="11">
         <v>11400</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>40</v>
       </c>
@@ -22451,8 +22526,11 @@
       <c r="JI33" s="11">
         <v>16400</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>17100</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>41</v>
       </c>
@@ -23256,10 +23334,13 @@
         <v>15300</v>
       </c>
       <c r="JI34" s="11">
-        <v>15700</v>
+        <v>15500</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>15800</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>43</v>
       </c>
@@ -24063,10 +24144,13 @@
         <v>13900</v>
       </c>
       <c r="JI35" s="11">
-        <v>14300</v>
+        <v>14100</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>14400</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>44</v>
       </c>
@@ -24872,8 +24956,11 @@
       <c r="JI36" s="11">
         <v>3700</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>3700</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>45</v>
       </c>
@@ -25677,10 +25764,13 @@
         <v>10300</v>
       </c>
       <c r="JI37" s="11">
-        <v>10600</v>
+        <v>10400</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>10700</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>46</v>
       </c>
@@ -26486,8 +26576,11 @@
       <c r="JI38" s="11">
         <v>3400</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>47</v>
       </c>
@@ -27291,10 +27384,13 @@
         <v>19900</v>
       </c>
       <c r="JI39" s="11">
-        <v>21300</v>
+        <v>21200</v>
+      </c>
+      <c r="JJ39" s="11">
+        <v>21700</v>
       </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>48</v>
       </c>
@@ -28100,8 +28196,11 @@
       <c r="JI40" s="11">
         <v>600</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>49</v>
       </c>
@@ -28905,10 +29004,13 @@
         <v>19300</v>
       </c>
       <c r="JI41" s="11">
-        <v>20700</v>
+        <v>20600</v>
+      </c>
+      <c r="JJ41" s="11">
+        <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>50</v>
       </c>
@@ -29712,10 +29814,13 @@
         <v>8500</v>
       </c>
       <c r="JI42" s="11">
-        <v>8600</v>
+        <v>8500</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>9400</v>
       </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>51</v>
       </c>
@@ -30519,10 +30624,13 @@
         <v>2900</v>
       </c>
       <c r="JI43" s="11">
-        <v>3000</v>
+        <v>2900</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>3800</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>52</v>
       </c>
@@ -31328,8 +31436,11 @@
       <c r="JI44" s="11">
         <v>5600</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>5600</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>53</v>
       </c>
@@ -32135,8 +32246,11 @@
       <c r="JI45" s="11">
         <v>12100</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>55</v>
       </c>
@@ -32942,8 +33056,11 @@
       <c r="JI46" s="11">
         <v>5100</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>58</v>
       </c>
@@ -33747,6 +33864,9 @@
         <v>500</v>
       </c>
       <c r="JI47" s="11">
+        <v>500</v>
+      </c>
+      <c r="JJ47" s="11">
         <v>500</v>
       </c>
     </row>

--- a/lowe/edd/data/SLO$HWS.xlsx
+++ b/lowe/edd/data/SLO$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,13 +284,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1400,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ56"/>
+  <dimension ref="A1:JL56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,12 +1417,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1450,12 +1450,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2276,11 +2276,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3087,10 +3093,16 @@
         <v>130700</v>
       </c>
       <c r="JJ9" s="11">
-        <v>132600</v>
+        <v>132700</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>133600</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>129800</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3897,10 +3909,16 @@
         <v>124800</v>
       </c>
       <c r="JJ10" s="11">
-        <v>127000</v>
+        <v>127100</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>128800</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>125300</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4709,8 +4727,14 @@
       <c r="JJ11" s="11">
         <v>5700</v>
       </c>
+      <c r="JK11" s="11">
+        <v>4800</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5519,8 +5543,14 @@
       <c r="JJ12" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6327,10 +6357,16 @@
         <v>113200</v>
       </c>
       <c r="JJ13" s="11">
-        <v>116100</v>
+        <v>116300</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>117100</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>113800</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7139,8 +7175,14 @@
       <c r="JJ14" s="11">
         <v>5100</v>
       </c>
+      <c r="JK14" s="11">
+        <v>4400</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7947,10 +7989,16 @@
         <v>108200</v>
       </c>
       <c r="JJ15" s="11">
-        <v>111000</v>
+        <v>111200</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>112700</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>109900</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8757,10 +8805,16 @@
         <v>87000</v>
       </c>
       <c r="JJ16" s="11">
-        <v>89300</v>
+        <v>89400</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>89600</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>89600</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9567,10 +9621,16 @@
         <v>16500</v>
       </c>
       <c r="JJ17" s="11">
-        <v>17000</v>
+        <v>17200</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>17200</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>17200</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10377,10 +10437,16 @@
         <v>8400</v>
       </c>
       <c r="JJ18" s="11">
-        <v>8700</v>
+        <v>8900</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>9000</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>9100</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11189,8 +11255,14 @@
       <c r="JJ19" s="11">
         <v>8300</v>
       </c>
+      <c r="JK19" s="11">
+        <v>8200</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>8100</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11999,8 +12071,14 @@
       <c r="JJ20" s="11">
         <v>2900</v>
       </c>
+      <c r="JK20" s="11">
+        <v>2900</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -12809,8 +12887,14 @@
       <c r="JJ21" s="11">
         <v>5400</v>
       </c>
+      <c r="JK21" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>24</v>
       </c>
@@ -13619,8 +13703,14 @@
       <c r="JJ22" s="11">
         <v>94000</v>
       </c>
+      <c r="JK22" s="11">
+        <v>95500</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>92700</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -14427,10 +14517,16 @@
         <v>70500</v>
       </c>
       <c r="JJ23" s="11">
-        <v>72300</v>
+        <v>72200</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>72400</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>72400</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>26</v>
       </c>
@@ -15237,10 +15333,16 @@
         <v>19000</v>
       </c>
       <c r="JJ24" s="11">
-        <v>19400</v>
+        <v>19500</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>19800</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>20100</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>27</v>
       </c>
@@ -16049,8 +16151,14 @@
       <c r="JJ25" s="11">
         <v>2600</v>
       </c>
+      <c r="JK25" s="11">
+        <v>2600</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -16859,8 +16967,14 @@
       <c r="JJ26" s="11">
         <v>13200</v>
       </c>
+      <c r="JK26" s="11">
+        <v>13400</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>13700</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>32</v>
       </c>
@@ -17667,10 +17781,16 @@
         <v>3500</v>
       </c>
       <c r="JJ27" s="11">
-        <v>3600</v>
+        <v>3700</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>3800</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>35</v>
       </c>
@@ -18479,8 +18599,14 @@
       <c r="JJ28" s="11">
         <v>1200</v>
       </c>
+      <c r="JK28" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>36</v>
       </c>
@@ -19289,8 +19415,14 @@
       <c r="JJ29" s="11">
         <v>3700</v>
       </c>
+      <c r="JK29" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>3700</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>37</v>
       </c>
@@ -20099,8 +20231,14 @@
       <c r="JJ30" s="11">
         <v>2200</v>
       </c>
+      <c r="JK30" s="11">
+        <v>2200</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>38</v>
       </c>
@@ -20909,8 +21047,14 @@
       <c r="JJ31" s="11">
         <v>1500</v>
       </c>
+      <c r="JK31" s="11">
+        <v>1500</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>39</v>
       </c>
@@ -21719,8 +21863,14 @@
       <c r="JJ32" s="11">
         <v>11600</v>
       </c>
+      <c r="JK32" s="11">
+        <v>11600</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>40</v>
       </c>
@@ -22529,8 +22679,14 @@
       <c r="JJ33" s="11">
         <v>17100</v>
       </c>
+      <c r="JK33" s="11">
+        <v>17200</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>17000</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>41</v>
       </c>
@@ -23337,10 +23493,16 @@
         <v>15500</v>
       </c>
       <c r="JJ34" s="11">
-        <v>15800</v>
+        <v>15600</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>15400</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>15200</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>43</v>
       </c>
@@ -24147,10 +24309,16 @@
         <v>14100</v>
       </c>
       <c r="JJ35" s="11">
-        <v>14400</v>
+        <v>14200</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>14000</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>13800</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>44</v>
       </c>
@@ -24959,8 +25127,14 @@
       <c r="JJ36" s="11">
         <v>3700</v>
       </c>
+      <c r="JK36" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>45</v>
       </c>
@@ -25767,10 +25941,16 @@
         <v>10400</v>
       </c>
       <c r="JJ37" s="11">
-        <v>10700</v>
+        <v>10500</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>10400</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>10200</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>46</v>
       </c>
@@ -26579,8 +26759,14 @@
       <c r="JJ38" s="11">
         <v>3500</v>
       </c>
+      <c r="JK38" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>47</v>
       </c>
@@ -27387,10 +27573,16 @@
         <v>21200</v>
       </c>
       <c r="JJ39" s="11">
-        <v>21700</v>
+        <v>21800</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>23100</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>20300</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>48</v>
       </c>
@@ -28199,8 +28391,14 @@
       <c r="JJ40" s="11">
         <v>600</v>
       </c>
+      <c r="JK40" s="11">
+        <v>600</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>49</v>
       </c>
@@ -29007,10 +29205,16 @@
         <v>20600</v>
       </c>
       <c r="JJ41" s="11">
-        <v>21100</v>
+        <v>21200</v>
+      </c>
+      <c r="JK41" s="11">
+        <v>22500</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>19700</v>
       </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>50</v>
       </c>
@@ -29817,10 +30021,16 @@
         <v>8500</v>
       </c>
       <c r="JJ42" s="11">
-        <v>9400</v>
+        <v>9500</v>
+      </c>
+      <c r="JK42" s="11">
+        <v>9800</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>9800</v>
       </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>51</v>
       </c>
@@ -30627,10 +30837,16 @@
         <v>2900</v>
       </c>
       <c r="JJ43" s="11">
-        <v>3800</v>
+        <v>3900</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>4200</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>52</v>
       </c>
@@ -31439,8 +31655,14 @@
       <c r="JJ44" s="11">
         <v>5600</v>
       </c>
+      <c r="JK44" s="11">
+        <v>5600</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>5500</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>53</v>
       </c>
@@ -32249,8 +32471,14 @@
       <c r="JJ45" s="11">
         <v>11700</v>
       </c>
+      <c r="JK45" s="11">
+        <v>12700</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>9900</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>55</v>
       </c>
@@ -33059,8 +33287,14 @@
       <c r="JJ46" s="11">
         <v>5100</v>
       </c>
+      <c r="JK46" s="11">
+        <v>5000</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>58</v>
       </c>
@@ -33867,6 +34101,12 @@
         <v>500</v>
       </c>
       <c r="JJ47" s="11">
+        <v>500</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>500</v>
+      </c>
+      <c r="JL47" s="11">
         <v>500</v>
       </c>
     </row>
